--- a/data/test_files/sample_table.xlsx
+++ b/data/test_files/sample_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73574D5F-53A2-4DDA-9E4F-C4450DDB1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1523205-2BCB-4C45-BFB8-691931BF408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="187" yWindow="2820" windowWidth="21113" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>created_ts</t>
   </si>
@@ -42,9 +42,6 @@
     <t>jeff</t>
   </si>
   <si>
-    <t>n_id</t>
-  </si>
-  <si>
     <t>John Snow</t>
   </si>
   <si>
@@ -54,7 +51,7 @@
     <t>Samwell Tarly</t>
   </si>
   <si>
-    <t>stage</t>
+    <t>draft</t>
   </si>
 </sst>
 </file>
@@ -390,85 +387,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>45001.009283564817</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>45001.009283564817</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>45001.009283564817</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45001.009283564817</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
